--- a/data/inbox/Logger_record_overzicht.xlsx
+++ b/data/inbox/Logger_record_overzicht.xlsx
@@ -198,20 +198,11 @@
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -220,6 +211,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -524,7 +524,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,197 +535,209 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="3"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="14" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="4">
         <v>43243</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="10">
         <v>4171</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="3">
         <v>5083</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="10">
         <v>5082</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="3">
         <v>4148</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="12">
         <v>4148</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="15"/>
+      <c r="A4" s="4">
+        <v>43255</v>
+      </c>
+      <c r="B4" s="10">
+        <v>4435</v>
+      </c>
+      <c r="C4" s="3">
+        <v>5370</v>
+      </c>
+      <c r="D4" s="10">
+        <v>5369</v>
+      </c>
+      <c r="E4" s="3">
+        <v>4435</v>
+      </c>
+      <c r="F4" s="12">
+        <v>4435</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="15"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="12"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="15"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="12"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="15"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="12"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="15"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="15"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="12"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="15"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="12"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="15"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="12"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="15"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="12"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="15"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="12"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="15"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="12"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="15"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="12"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="15"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="12"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="15"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="12"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="15"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="12"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="15"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="12"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="15"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="12"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="16"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/data/inbox/Logger_record_overzicht.xlsx
+++ b/data/inbox/Logger_record_overzicht.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Blad2" sheetId="2" r:id="rId2"/>
     <sheet name="Blad3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>datum</t>
   </si>
@@ -38,15 +38,43 @@
   <si>
     <t>LAASTE RECORD</t>
   </si>
+  <si>
+    <t>opnieuw uit te lezen vanaf 3573</t>
+  </si>
+  <si>
+    <t>opnieuw uit te lezen vanaf 4148</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -195,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -211,6 +239,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -524,24 +556,27 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="17"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="21"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -567,13 +602,13 @@
       <c r="A3" s="4">
         <v>43243</v>
       </c>
-      <c r="B3" s="10">
-        <v>4171</v>
+      <c r="B3" s="17">
+        <v>4173</v>
       </c>
       <c r="C3" s="3">
         <v>5083</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="16">
         <v>5082</v>
       </c>
       <c r="E3" s="3">
@@ -587,14 +622,14 @@
       <c r="A4" s="4">
         <v>43255</v>
       </c>
-      <c r="B4" s="10">
-        <v>4435</v>
+      <c r="B4" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="C4" s="3">
         <v>5370</v>
       </c>
-      <c r="D4" s="10">
-        <v>5369</v>
+      <c r="D4" s="15" t="s">
+        <v>7</v>
       </c>
       <c r="E4" s="3">
         <v>4435</v>
@@ -604,28 +639,64 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="12"/>
+      <c r="A5" s="4">
+        <v>43265</v>
+      </c>
+      <c r="B5" s="10">
+        <v>4678</v>
+      </c>
+      <c r="C5" s="3">
+        <v>5613</v>
+      </c>
+      <c r="D5" s="10">
+        <v>5613</v>
+      </c>
+      <c r="E5" s="3">
+        <v>4678</v>
+      </c>
+      <c r="F5" s="12">
+        <v>4678</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="12"/>
+      <c r="A6" s="4">
+        <v>43297</v>
+      </c>
+      <c r="B6" s="10">
+        <v>5444</v>
+      </c>
+      <c r="C6" s="18">
+        <v>6379</v>
+      </c>
+      <c r="D6" s="10">
+        <v>6379</v>
+      </c>
+      <c r="E6" s="18">
+        <v>5444</v>
+      </c>
+      <c r="F6" s="12">
+        <v>5444</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="12"/>
+      <c r="A7" s="4">
+        <v>43328</v>
+      </c>
+      <c r="B7" s="10">
+        <v>6186</v>
+      </c>
+      <c r="C7" s="18">
+        <v>7121</v>
+      </c>
+      <c r="D7" s="10">
+        <v>7121</v>
+      </c>
+      <c r="E7" s="18">
+        <v>6186</v>
+      </c>
+      <c r="F7" s="12">
+        <v>6186</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
@@ -744,6 +815,7 @@
     <mergeCell ref="B1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/data/inbox/Logger_record_overzicht.xlsx
+++ b/data/inbox/Logger_record_overzicht.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="6180"/>
   </bookViews>
   <sheets>
-    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
-    <sheet name="Blad2" sheetId="2" r:id="rId2"/>
-    <sheet name="Blad3" sheetId="3" r:id="rId3"/>
+    <sheet name="loggers laboproef" sheetId="1" r:id="rId1"/>
+    <sheet name="loggers terrein" sheetId="2" r:id="rId2"/>
+    <sheet name="loggers Zwarte beek" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>datum</t>
   </si>
@@ -43,13 +43,28 @@
   </si>
   <si>
     <t>opnieuw uit te lezen vanaf 4148</t>
+  </si>
+  <si>
+    <t>logger S6103</t>
+  </si>
+  <si>
+    <t>logger S6108</t>
+  </si>
+  <si>
+    <t>logger S6110</t>
+  </si>
+  <si>
+    <t>logger afgekoppeld voor ZB</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,8 +94,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -93,6 +114,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -223,7 +250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -243,6 +270,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -252,6 +283,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -553,30 +585,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="21"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -699,20 +731,44 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="12"/>
+      <c r="A8" s="4">
+        <v>43360</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="18">
+        <v>7892</v>
+      </c>
+      <c r="D8" s="10">
+        <v>7892</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="12"/>
+      <c r="A9" s="4">
+        <v>43360</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -802,13 +858,21 @@
       <c r="E20" s="3"/>
       <c r="F20" s="12"/>
     </row>
-    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="13"/>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="12"/>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="5"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -821,13 +885,100 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>43250</v>
+      </c>
+      <c r="B3" s="10">
+        <v>3648</v>
+      </c>
+      <c r="C3" s="3">
+        <v>3628</v>
+      </c>
+      <c r="D3" s="10">
+        <v>3619</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>43333</v>
+      </c>
+      <c r="B4" s="19">
+        <v>6667</v>
+      </c>
+      <c r="C4" s="20">
+        <v>6649</v>
+      </c>
+      <c r="D4" s="21">
+        <v>6641</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="15"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="21"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="21"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -835,7 +986,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
